--- a/src/game/tools/rpc/input/ClientCmds.xlsx
+++ b/src/game/tools/rpc/input/ClientCmds.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>opcode</t>
   </si>
@@ -70,12 +70,27 @@
   <si>
     <t>登录失败（1 用户不存在，2  密码错误， 3 禁止登陆）</t>
   </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tring msg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -85,6 +100,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -197,9 +218,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +231,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,7 +1429,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1448,42 +1469,44 @@
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1505,78 +1528,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.625" style="11" customWidth="1"/>
+    <col min="1" max="256" width="8.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1596,78 +1619,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.625" style="12" customWidth="1"/>
+    <col min="1" max="256" width="8.625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
